--- a/config/project/demo/report.xlsx
+++ b/config/project/demo/report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{932E22DB-2EFC-4934-B535-A1FC9E74D41B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,133 +27,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Demo 测试报表</t>
   </si>
   <si>
-    <t>组序号</t>
-  </si>
-  <si>
-    <t>组名称</t>
-  </si>
-  <si>
-    <t>测试类型</t>
-  </si>
-  <si>
     <t>参数名称</t>
   </si>
   <si>
-    <t>技术要求</t>
-  </si>
-  <si>
-    <t>实测值</t>
-  </si>
-  <si>
-    <t>结论</t>
-  </si>
-  <si>
-    <t>demoGroup</t>
-  </si>
-  <si>
-    <t>demoType</t>
-  </si>
-  <si>
-    <t>demo1</t>
-  </si>
-  <si>
-    <t>value1</t>
-  </si>
-  <si>
-    <t>demo2</t>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>result2</t>
-  </si>
-  <si>
-    <t>demo3</t>
-  </si>
-  <si>
-    <t>value3</t>
-  </si>
-  <si>
-    <t>result3</t>
-  </si>
-  <si>
-    <t>demo4</t>
-  </si>
-  <si>
-    <t>value4</t>
-  </si>
-  <si>
-    <t>result4</t>
-  </si>
-  <si>
-    <t>demo5</t>
-  </si>
-  <si>
-    <t>value5</t>
-  </si>
-  <si>
-    <t>result5</t>
-  </si>
-  <si>
-    <t>demo6</t>
-  </si>
-  <si>
-    <t>value6</t>
-  </si>
-  <si>
-    <t>result6</t>
-  </si>
-  <si>
-    <t>demo7</t>
-  </si>
-  <si>
-    <t>value7</t>
-  </si>
-  <si>
-    <t>result7</t>
-  </si>
-  <si>
-    <t>demo8</t>
-  </si>
-  <si>
-    <t>value8</t>
-  </si>
-  <si>
-    <t>result8</t>
-  </si>
-  <si>
-    <t>value9</t>
+    <t>继电器1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器2</t>
+  </si>
+  <si>
+    <t>继电器3</t>
+  </si>
+  <si>
+    <t>继电器4</t>
+  </si>
+  <si>
+    <t>继电器5</t>
+  </si>
+  <si>
+    <t>继电器6</t>
+  </si>
+  <si>
+    <t>继电器7</t>
+  </si>
+  <si>
+    <t>继电器8</t>
+  </si>
+  <si>
+    <t>光耦1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>光耦2</t>
+  </si>
+  <si>
+    <t>光耦3</t>
+  </si>
+  <si>
+    <t>光耦4</t>
+  </si>
+  <si>
+    <t>光耦5</t>
+  </si>
+  <si>
+    <t>光耦6</t>
+  </si>
+  <si>
+    <t>光耦7</t>
+  </si>
+  <si>
+    <t>光耦8</t>
+  </si>
+  <si>
+    <t>光耦9</t>
+  </si>
+  <si>
+    <t>光耦10</t>
+  </si>
+  <si>
+    <t>光耦11</t>
+  </si>
+  <si>
+    <t>光耦12</t>
+  </si>
+  <si>
+    <t>光耦13</t>
+  </si>
+  <si>
+    <t>光耦14</t>
+  </si>
+  <si>
+    <t>光耦15</t>
+  </si>
+  <si>
+    <t>光耦16</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>result9</t>
-  </si>
-  <si>
-    <t>result{1,2,3,4}</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="24" type="noConversion"/>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>result10</t>
+  </si>
+  <si>
+    <t>result11</t>
+  </si>
+  <si>
+    <t>result12</t>
+  </si>
+  <si>
+    <t>result13</t>
+  </si>
+  <si>
+    <t>result14</t>
+  </si>
+  <si>
+    <t>result15</t>
+  </si>
+  <si>
+    <t>result16</t>
+  </si>
+  <si>
+    <t>result17</t>
+  </si>
+  <si>
+    <t>result18</t>
+  </si>
+  <si>
+    <t>result19</t>
+  </si>
+  <si>
+    <t>result20</t>
+  </si>
+  <si>
+    <t>result21</t>
+  </si>
+  <si>
+    <t>result22</t>
+  </si>
+  <si>
+    <t>result23</t>
+  </si>
+  <si>
+    <t>result24</t>
+  </si>
+  <si>
+    <t>result25</t>
+  </si>
+  <si>
+    <t>result26</t>
+  </si>
+  <si>
+    <t>result27</t>
+  </si>
+  <si>
+    <t>result28</t>
+  </si>
+  <si>
+    <t>result29</t>
+  </si>
+  <si>
+    <t>result30</t>
+  </si>
+  <si>
+    <t>result31</t>
+  </si>
+  <si>
+    <t>result32</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -166,12 +208,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -310,6 +346,20 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -457,7 +507,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -624,174 +674,137 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,68 +817,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -873,7 +871,7 @@
     <cellStyle name="标题 4" xfId="23" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="24" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_Sheet1" xfId="25"/>
+    <cellStyle name="常规_Sheet1" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="好" xfId="26" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="27" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="28" builtinId="22" customBuiltin="1"/>
@@ -881,12 +879,12 @@
     <cellStyle name="解释性文本" xfId="30" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="31" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="32" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="33"/>
-    <cellStyle name="强调文字颜色 2" xfId="34"/>
-    <cellStyle name="强调文字颜色 3" xfId="35"/>
-    <cellStyle name="强调文字颜色 4" xfId="36"/>
-    <cellStyle name="强调文字颜色 5" xfId="37"/>
-    <cellStyle name="强调文字颜色 6" xfId="38"/>
+    <cellStyle name="强调文字颜色 1" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="适中" xfId="39" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="40" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="41" builtinId="20" customBuiltin="1"/>
@@ -1216,274 +1214,313 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IU16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IP26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="6" customWidth="1"/>
-    <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.25" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.58203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" style="2" customWidth="1"/>
-    <col min="13" max="255" width="9" style="2"/>
+    <col min="3" max="3" width="13.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="2" customWidth="1"/>
+    <col min="8" max="250" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" ht="39" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="C12" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="10" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="C16" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="C17" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10" t="s">
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="C19" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10" t="s">
+      <c r="C21" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="C22" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="C23" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10" t="s">
+      <c r="C24" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="C25" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="9"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F13" s="9"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F14" s="9"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F15" s="9"/>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="C26" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="C3:C10"/>
-    <mergeCell ref="G11:G15"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <conditionalFormatting sqref="F17:F64222">
+  <phoneticPr fontId="23" type="noConversion"/>
+  <conditionalFormatting sqref="C27:C64212">
     <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
@@ -1495,14 +1532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
@@ -1510,14 +1547,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="24" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>

--- a/config/project/demo/report.xlsx
+++ b/config/project/demo/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{932E22DB-2EFC-4934-B535-A1FC9E74D41B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{88EDCD8C-1ED9-4D29-867D-99F294F87F52}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="7860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Demo 测试报表</t>
   </si>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>result32</t>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -826,23 +830,23 @@
     <xf numFmtId="49" fontId="4" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="25" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1215,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IP26"/>
+  <dimension ref="A1:IP27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,14 +1238,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1252,267 +1256,272 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="8">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="8">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>21</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
+      <c r="A24" s="8">
         <v>22</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+      <c r="A25" s="8">
         <v>23</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
+      <c r="A26" s="8">
         <v>24</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="9" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
